--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.012920-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.012920-2.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4881,12 +4881,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5679,12 +5679,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5763,12 +5763,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6015,12 +6015,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6057,12 +6057,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6607,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8131,12 +8131,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8299,12 +8299,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8467,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9265,12 +9265,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9475,12 +9475,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9517,12 +9517,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10193,12 +10193,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10865,12 +10865,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10991,12 +10991,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11117,12 +11117,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11163,12 +11163,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11205,12 +11205,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11247,12 +11247,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11415,12 +11415,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12435,12 +12435,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12733,12 +12733,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12863,12 +12863,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12905,12 +12905,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14039,12 +14039,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14165,12 +14165,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14291,12 +14291,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14711,12 +14711,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15171,12 +15171,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15213,12 +15213,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15927,12 +15927,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16011,12 +16011,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16053,12 +16053,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17145,12 +17145,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17439,12 +17439,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17481,12 +17481,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17649,12 +17649,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18321,12 +18321,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18531,12 +18531,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18657,12 +18657,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18745,12 +18745,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19081,12 +19081,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19963,12 +19963,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20467,12 +20467,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20551,12 +20551,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21853,12 +21853,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22273,12 +22273,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22961,12 +22961,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23339,12 +23339,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23759,12 +23759,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23969,12 +23969,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24053,12 +24053,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24221,12 +24221,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24599,12 +24599,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24851,12 +24851,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
